--- a/assets/uploads/mahasiswa/contoh-file2.xlsx
+++ b/assets/uploads/mahasiswa/contoh-file2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pengajuan_surat\assets\uploads\mahasiswa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3BA6B7-8CDF-4AD2-BD84-2F7A2F6FBE79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596F43F8-6F01-478E-B728-5E93987352C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EECBEA9-EA3A-4539-AC53-3E15F0FB206F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Gelumbang</t>
   </si>
@@ -48,10 +48,34 @@
     <t>2001-jun-06</t>
   </si>
   <si>
-    <t>Sandi Maulidika</t>
-  </si>
-  <si>
-    <t>gelumbang</t>
+    <t>Prabumulih</t>
+  </si>
+  <si>
+    <t>Robi</t>
+  </si>
+  <si>
+    <t>Nim</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>NO WA</t>
   </si>
 </sst>
 </file>
@@ -445,7 +469,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,29 +481,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>201210012</v>
+      <c r="A1" t="s">
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>201210014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>85380948543</v>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>85380948535</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
